--- a/data/income_statement/2digits/total/15_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/15_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>15-Manufacture of leather and related products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>15-Manufacture of leather and related products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3822423.35307</v>
@@ -956,37 +862,42 @@
         <v>4566961.17404</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6153991.77318</v>
+        <v>6154791.740859999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7319447.72755</v>
+        <v>7320092.68293</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7909856.53534</v>
+        <v>7917738.82406</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8721087.215760002</v>
+        <v>8730590.552580001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9491001.84674</v>
+        <v>9572050.99013</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10872145.96169</v>
+        <v>10912907.1348</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13472362.73724</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>16642427.95357</v>
+        <v>16674444.76336</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19561271.22513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19890979.27177</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>19912144.11</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3130605.53853</v>
@@ -995,76 +906,86 @@
         <v>3727820.35411</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5032830.88974</v>
+        <v>5033593.545280001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6082062.52873</v>
+        <v>6082707.484110001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6553029.03536</v>
+        <v>6560272.46115</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7203065.741230001</v>
+        <v>7211819.99283</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7966858.623369999</v>
+        <v>8025238.340890001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9389084.299199998</v>
+        <v>9429089.922079999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>11500753.58551</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>13538551.70451</v>
+        <v>13559812.79813</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>15925918.12892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16215061.60399</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>16093962.374</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>646409.52986</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>799476.91512</v>
+        <v>799476.9151199999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1059452.49841</v>
+        <v>1059489.81055</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>1168077.90801</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1288877.11352</v>
+        <v>1289507.03456</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1448327.52325</v>
+        <v>1449045.41626</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1411789.13132</v>
+        <v>1433685.14346</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1363833.62671</v>
+        <v>1364544.21847</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1817704.35609</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2912198.59812</v>
+        <v>2922842.51964</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3390372.01583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3428785.20059</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3516882.075</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>45408.28468</v>
@@ -1073,37 +994,42 @@
         <v>39663.90481</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>61708.38502999999</v>
+        <v>61708.38503</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>69307.29081000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>67950.38646000001</v>
+        <v>67959.32835</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>69693.95128000001</v>
+        <v>69725.14348999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>112354.09205</v>
+        <v>113127.50578</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>119228.03578</v>
+        <v>119272.99425</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>153904.79564</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>191677.65094</v>
+        <v>191789.44559</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>244981.08038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>247132.46719</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>301299.661</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>78546.91918000001</v>
@@ -1118,37 +1044,42 @@
         <v>219400.19636</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>248629.41331</v>
+        <v>248718.12957</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>292965.78744</v>
+        <v>292995.22844</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>343415.08057</v>
+        <v>345269.85172</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>431899.8173</v>
+        <v>432143.1674500001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>582529.59322</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>815680.87428</v>
+        <v>816278.17684</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>958882.5649999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>963492.4801499998</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>713229.597</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>57124.01233</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>66923.89745999999</v>
+        <v>66923.89746000001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>91770.65841</v>
@@ -1157,31 +1088,36 @@
         <v>103955.92761</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>110556.57067</v>
+        <v>110645.28693</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>143972.78035</v>
+        <v>144002.22135</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>168770.75124</v>
+        <v>170595.15286</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>209320.83569</v>
+        <v>209564.18584</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>249610.65187</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>352918.05927</v>
+        <v>353008.57379</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>381838.11486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>386046.93653</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>376577.769</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>18744.94603</v>
@@ -1202,7 +1138,7 @@
         <v>140472.99665</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>156432.33358</v>
+        <v>156453.99716</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>216595.89517</v>
@@ -1211,16 +1147,21 @@
         <v>319251.61463</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>444794.92051</v>
+        <v>444797.38551</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>551902.5785600001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>552249.48034</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>322107.872</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2677.96082</v>
@@ -1241,7 +1182,7 @@
         <v>8520.01044</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>18211.99575</v>
+        <v>18220.7017</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>5983.086439999999</v>
@@ -1250,16 +1191,21 @@
         <v>13667.32672</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>17967.8945</v>
+        <v>18472.21754</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>25141.87158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25196.06328</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>14543.956</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3743876.43389</v>
@@ -1268,37 +1214,42 @@
         <v>4475937.36229</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6020420.195</v>
+        <v>6021220.16268</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7100047.53119</v>
+        <v>7100692.486570001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7661227.122030001</v>
+        <v>7669020.694490001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8428121.42832</v>
+        <v>8437595.324139999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9147586.766170001</v>
+        <v>9226781.13841</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10440246.14439</v>
+        <v>10480763.96735</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>12889833.14402</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>15826747.07929</v>
+        <v>15858166.58652</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18602388.66013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18927486.79162</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>19198914.513</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3152980.98606</v>
@@ -1307,37 +1258,42 @@
         <v>3804849.78611</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5139305.43825</v>
+        <v>5139452.46126</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6165984.30643</v>
+        <v>6166823.74664</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6566772.2451</v>
+        <v>6574218.98219</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7252095.30533</v>
+        <v>7260922.98616</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7805466.32406</v>
+        <v>7871304.49663</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8955572.380690001</v>
+        <v>8985526.871299999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>11054273.38879</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13607093.57758</v>
+        <v>13635778.43607</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>15881412.09125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16153957.50507</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>16370063.06</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2525036.97716</v>
@@ -1346,40 +1302,45 @@
         <v>3087047.54789</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4121600.18973</v>
+        <v>4121679.39261</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5084387.78401</v>
+        <v>5084476.78354</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5554807.96558</v>
+        <v>5562086.707649999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6085234.985559999</v>
+        <v>6093685.77771</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6469641.989019999</v>
+        <v>6533271.020529999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7353957.629530001</v>
+        <v>7381281.70151</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>9142455.507570002</v>
+        <v>9142455.50757</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>11264449.65081</v>
+        <v>11277935.92296</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>13146171.64904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13340535.71483</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>13529882.115</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>559497.7539</v>
+        <v>559497.7539000001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>644626.1759800001</v>
@@ -1388,43 +1349,48 @@
         <v>920573.77994</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>960485.2415499999</v>
+        <v>961235.68223</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>876256.19374</v>
+        <v>876424.18876</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1017141.17945</v>
+        <v>1017467.22845</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1216411.10058</v>
+        <v>1218162.52423</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1464671.36193</v>
+        <v>1465388.29504</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1707693.97012</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2121463.01707</v>
+        <v>2135417.41681</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2433206.41937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2498869.96319</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2504054.831</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>53583.69176000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>58771.93585000001</v>
+        <v>58771.93584999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>81396.47026999999</v>
+        <v>81464.29040000001</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>98334.80740000001</v>
@@ -1433,28 +1399,33 @@
         <v>98875.47516</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>99587.38884</v>
+        <v>99638.22851999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>86336.78328999999</v>
+        <v>86794.5007</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>95615.10706000001</v>
+        <v>96905.62969</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>163348.36424</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>178784.17001</v>
+        <v>180028.35661</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>230115.50417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>242576.22324</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>244734.673</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>14862.56324</v>
@@ -1472,13 +1443,13 @@
         <v>36832.61062000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>50131.75148000001</v>
+        <v>50131.75148</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>33076.45117</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>41328.28217</v>
+        <v>41951.24505999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>40775.54686</v>
@@ -1487,91 +1458,106 @@
         <v>42396.73968999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>71918.51867</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>71975.60381</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>91391.44100000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>590895.44783</v>
+        <v>590895.4478300001</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>671087.5761800001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>881114.7567499999</v>
+        <v>881767.7014199999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>934063.22476</v>
+        <v>933868.73993</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1094454.87693</v>
+        <v>1094801.7123</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1176026.12299</v>
+        <v>1176672.33798</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1342120.44211</v>
+        <v>1355476.64178</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1484673.7637</v>
+        <v>1495237.09605</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1835559.75523</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2219653.50171</v>
+        <v>2222388.15045</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2720976.56888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2773529.28655</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2828851.453</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>392180.46617</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>443232.60336</v>
+        <v>443260.0432000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>551289.66305</v>
+        <v>551763.1094600001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>627816.31135</v>
+        <v>627877.2245599999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>702127.22039</v>
+        <v>702406.74292</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>766913.00587</v>
+        <v>767414.58996</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>833016.2924400001</v>
+        <v>842153.2940899999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>960371.4408199999</v>
+        <v>962957.0054500001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1095606.60533</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1347795.99825</v>
+        <v>1351236.91519</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1570364.98751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1621822.89473</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1610542.955</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2864.29201</v>
@@ -1580,10 +1566,10 @@
         <v>3472.34653</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5609.905620000001</v>
+        <v>5609.90562</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4232.49364</v>
+        <v>4232.493640000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>3347.24059</v>
@@ -1592,7 +1578,7 @@
         <v>2887.26816</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3401.90565</v>
+        <v>4319.20287</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>4120.599</v>
@@ -1601,16 +1587,21 @@
         <v>5100.05617</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>8302.441629999999</v>
+        <v>8303.22553</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>8074.33157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8087.56751</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>8897.853999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>161039.7076</v>
@@ -1619,154 +1610,174 @@
         <v>181552.31421</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>231062.29148</v>
+        <v>231062.46715</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>271164.45302</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>307736.70577</v>
+        <v>307781.45024</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>351302.3085399999</v>
+        <v>351428.34158</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>370388.4861</v>
+        <v>373310.53496</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>434339.13735</v>
+        <v>435620.58092</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>520688.63829</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>637126.7789800001</v>
+        <v>637405.0504299999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>751337.3293499999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>777110.19624</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>742425.2389999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>228276.46656</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>258207.94262</v>
+        <v>258235.38246</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>314617.46595</v>
+        <v>315090.73669</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>352419.36469</v>
+        <v>352480.2779</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>391043.27403</v>
+        <v>391278.05209</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>412723.42917</v>
+        <v>413098.98022</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>459225.90069</v>
+        <v>464523.55626</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>521911.7044700001</v>
+        <v>523215.82553</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>569817.91087</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>702366.7776400001</v>
+        <v>705528.63923</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>810953.32659</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>836625.13098</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>859219.862</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>198714.98166</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>227854.97282</v>
+        <v>227827.53298</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>329825.0937</v>
+        <v>330004.59196</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>306246.91341</v>
+        <v>305991.51537</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>392327.6565399999</v>
+        <v>392394.96938</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>409113.11712</v>
+        <v>409257.74802</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>509104.14967</v>
+        <v>513323.34769</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>524302.32288</v>
+        <v>532280.0906</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>739953.1499000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>871857.5034599999</v>
+        <v>871151.23526</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1150611.58137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1151706.39182</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1218308.498</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>124129.28718</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>125083.93229</v>
+        <v>125093.67886</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>173653.48462</v>
+        <v>173659.49909</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>170012.19548</v>
+        <v>170040.8212</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>255576.59847</v>
+        <v>255613.88698</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>298729.6130900001</v>
+        <v>298805.04529</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>559809.50084</v>
+        <v>565551.10677</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>409518.68857</v>
+        <v>409811.22934</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>431978.32036</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1161142.83641</v>
+        <v>1162163.82512</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>604020.98029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>614912.03591</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1080208.579</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3132.7278</v>
@@ -1784,13 +1795,13 @@
         <v>1198.42018</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5359.643000000001</v>
+        <v>5359.643</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2794.2877</v>
+        <v>3134.97609</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3962.254800000001</v>
+        <v>3962.2548</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>4922.106519999999</v>
@@ -1799,13 +1810,18 @@
         <v>5229.96617</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>6199.10598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>6199.105979999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6194.244</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>134.61256</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>145.43494</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>9625.32064</v>
@@ -1853,40 +1874,45 @@
         <v>9186.04933</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8691.29608</v>
+        <v>8691.296079999998</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>12451.69637</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11202.8049</v>
+        <v>11233.7683</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15790.10448</v>
+        <v>15847.59894</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>21763.7919</v>
+        <v>21900.5569</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>18131.09318</v>
+        <v>18131.67007</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>25527.58672</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>55440.8541</v>
+        <v>55451.30116</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>60886.76585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>62690.8942</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>53411.942</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>631.17437</v>
+        <v>631.1743700000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>714.27804</v>
@@ -1907,22 +1933,27 @@
         <v>2216.50366</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>40.73133</v>
+        <v>40.73132999999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>757.5941100000001</v>
+        <v>757.59411</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>1292.69514</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>345.67748</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>625.67747</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3032.47</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1657.18255</v>
@@ -1949,19 +1980,24 @@
         <v>4906.08107</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4649.018170000001</v>
+        <v>4649.01817</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>4126.51411</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>5316.51989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5317.14115</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4070.479</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>270.27569</v>
@@ -1982,13 +2018,13 @@
         <v>419.65735</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>180.67321</v>
+        <v>219.24608</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2600.30727</v>
+        <v>2600.307269999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>6223.818300000001</v>
+        <v>6223.8183</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>1096.05836</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>1206.48509</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>72987.14</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>84072.91166</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>84876.26934999999</v>
+        <v>84886.01592000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>125913.66562</v>
+        <v>125919.68009</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>102798.2189</v>
+        <v>102820.74292</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>177685.40241</v>
+        <v>177689.12668</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>175451.77806</v>
+        <v>175469.7158</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>366684.78005</v>
+        <v>371418.58178</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>249514.65594</v>
+        <v>249604.93634</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>264171.58797</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>910705.1808000001</v>
+        <v>911372.5991400001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>393161.43375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>398652.38775</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>784167.309</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>210.85388</v>
@@ -2063,7 +2109,7 @@
         <v>13282.77508</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>17702.24259</v>
+        <v>17902.34285</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>20422.58049</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>42350.6281</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>24151.161</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>72.2449</v>
@@ -2090,7 +2141,7 @@
         <v>23.60055</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>59.35563</v>
+        <v>59.35562999999999</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>33.943</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>4.91883</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>109.693</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>24321.98313</v>
@@ -2129,82 +2185,92 @@
         <v>32953.19928</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>48138.99415</v>
+        <v>48145.09585</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>60187.94772</v>
+        <v>60190.54856</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>91714.99722</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>146757.01597</v>
+        <v>147248.79391</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>111422.78361</v>
+        <v>111424.36683</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>104307.49015</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>147384.35647</v>
+        <v>147727.47978</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>94404.01037999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>97719.36240000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>132084.141</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>105699.70158</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>84222.35241999998</v>
+        <v>84232.7934</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>151275.95641</v>
+        <v>151281.30521</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>115656.38345</v>
+        <v>115660.33285</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>273836.16211</v>
+        <v>273845.14413</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>271455.50238</v>
+        <v>271476.166</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>557415.39746</v>
+        <v>562770.0045599999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>403315.94827</v>
+        <v>403448.51473</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>384217.76459</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1152282.11081</v>
+        <v>1153158.91355</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>639579.67349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>643256.4896900001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>927008.421</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>982.8512900000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>768.3817500000001</v>
+        <v>768.38175</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1339.30209</v>
+        <v>1339.33209</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>2244.16727</v>
@@ -2213,34 +2279,39 @@
         <v>1991.89875</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7995.288759999999</v>
+        <v>8009.615569999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2539.97171</v>
+        <v>2730.81646</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>2797.18574</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4811.06614</v>
+        <v>4811.066140000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5891.694530000001</v>
+        <v>5901.895030000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6097.41112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6371.741980000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7528.847</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>11944.03428</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4251.918009999999</v>
+        <v>4251.91801</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>3307.29448</v>
@@ -2255,7 +2326,7 @@
         <v>27234.64517</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>29301.77322</v>
+        <v>29841.297</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>23727.30643</v>
@@ -2267,13 +2338,18 @@
         <v>58651.4667</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>142788.15561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>142871.65561</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>62782.086</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>44.66814</v>
@@ -2294,13 +2370,13 @@
         <v>68.3733</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>417.8632600000001</v>
+        <v>417.86326</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>46.46488</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>864.20781</v>
+        <v>864.2078100000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>27.27527</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>670.25224</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>70657.178</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>81879.81634999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>71541.35937999999</v>
+        <v>71551.80035999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>132336.26161</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>81002.36386000001</v>
+        <v>81006.31326</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>208440.65596</v>
+        <v>208449.63798</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>176456.52967</v>
+        <v>176462.86648</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>396191.68311</v>
+        <v>400814.82147</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>286468.8380399999</v>
+        <v>286553.6064099999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>294334.25303</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>982887.55322</v>
+        <v>983742.96904</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>421039.3972099999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>424340.61616</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>722371.5699999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>104.32284</v>
@@ -2375,7 +2461,7 @@
         <v>15941.7744</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>18679.19766</v>
+        <v>18722.58717</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>23516.97478</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>34032.55186</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>23589.691</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1.16347</v>
@@ -2425,92 +2516,107 @@
       <c r="M42" s="48" t="n">
         <v>7.30348</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>145.835</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10742.84521</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7337.224380000001</v>
+        <v>7337.22438</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>14210.23578</v>
+        <v>14215.55458</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>22348.52931</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>50518.45641</v>
+        <v>50518.45641000001</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>51113.64382</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>113022.32803</v>
+        <v>113023.42824</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>71596.95551999999</v>
+        <v>71601.36409999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>30993.31843</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>61287.62897</v>
+        <v>61298.81539000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>34944.60197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>34962.36836</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>39933.214</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>92134.00984</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>70550.36785000001</v>
+        <v>70550.36785</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>123766.48543</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>120039.77604</v>
+        <v>120063.18355</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>154178.26184</v>
+        <v>154178.51266</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>173050.17354</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>252133.652</v>
+        <v>252843.48919</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>280605.4038200001</v>
+        <v>282111.19224</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>345234.3695</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>597891.3764100001</v>
+        <v>598687.35033</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>476761.06292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>482840.32548</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>473330.71</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>88295.57571</v>
+        <v>88295.57570999999</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>65886.57107000001</v>
@@ -2519,40 +2625,45 @@
         <v>111821.02478</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>111973.71986</v>
+        <v>111997.12737</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>143208.10515</v>
+        <v>143208.35597</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>161265.91415</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>237166.27842</v>
+        <v>237876.11561</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>267296.51492</v>
+        <v>266805.08551</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>327598.6670900001</v>
+        <v>327598.66709</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>564508.8871400001</v>
+        <v>565304.86106</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>452046.05606</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>458072.39664</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>450878.098</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3838.43413</v>
+        <v>3838.434130000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>4663.796780000001</v>
+        <v>4663.79678</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>11945.46065</v>
@@ -2570,7 +2681,7 @@
         <v>14967.37358</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>13308.8889</v>
+        <v>15306.10673</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>17635.70241</v>
@@ -2579,52 +2690,62 @@
         <v>33382.48927</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>24715.00686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>24767.92884</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>22452.612</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>125010.55742</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>198166.18484</v>
+        <v>198138.05059</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>228436.13648</v>
+        <v>228616.30041</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>240562.9494</v>
+        <v>240308.82017</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>219889.83106</v>
+        <v>219985.19957</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>263337.05429</v>
+        <v>263536.45377</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>259364.60105</v>
+        <v>263260.96071</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>249899.65936</v>
+        <v>256531.61297</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>442479.3361700001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>282826.85265</v>
+        <v>281468.7965</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>638291.82525</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>640521.6125599999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>898177.946</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>49656.23752</v>
@@ -2636,34 +2757,39 @@
         <v>34607.70851</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>35735.47045</v>
+        <v>35783.87796</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>65328.49777999999</v>
+        <v>65332.03039</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>67464.09421</v>
+        <v>67464.09592000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>74492.34138</v>
+        <v>74880.28568</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>77957.80700999999</v>
+        <v>78145.82537999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>92231.07627000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>141591.16497</v>
+        <v>141775.1431</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>111349.73298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>111983.12367</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>172802.509</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2909.88264</v>
@@ -2684,10 +2810,10 @@
         <v>176.23485</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>227.1952</v>
+        <v>217.1966</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>548.18688</v>
+        <v>548.1868800000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>229.20567</v>
@@ -2696,13 +2822,18 @@
         <v>910.6703</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>958.26189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1004.8531</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>835.0410000000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>46746.35487999999</v>
@@ -2714,76 +2845,86 @@
         <v>34292.15778</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>35452.11809</v>
+        <v>35500.52559999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>65057.83879</v>
+        <v>65061.3714</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>67287.85936</v>
+        <v>67287.86107</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>74265.14618</v>
+        <v>74663.08908000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>77409.62013</v>
+        <v>77597.6385</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>92001.87059999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>140680.49467</v>
+        <v>140864.4728</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>110391.47109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>110978.27057</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>171967.468</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>44645.48865</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>23782.09416</v>
+        <v>23782.37416</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>165497.49698</v>
+        <v>165515.65785</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>33892.87776</v>
+        <v>33893.21906</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>31546.25815</v>
+        <v>31546.50112</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>116755.51692</v>
+        <v>116756.17013</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>50305.15121</v>
+        <v>51011.50614</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>203234.6502</v>
+        <v>203170.88533</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>67550.57369</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>259194.47733</v>
+        <v>260652.26884</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>107663.46596</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>109876.15697</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>86943.41899999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>5789.095050000001</v>
+        <v>5789.09505</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>2104.75389</v>
@@ -2801,7 +2942,7 @@
         <v>5177.11087</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9415.507600000001</v>
+        <v>9553.04556</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>8788.913</v>
@@ -2810,16 +2951,21 @@
         <v>9197.032790000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>13026.65853</v>
+        <v>13215.01022</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>22757.01127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>23532.91238</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>14131.48</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2931.45215</v>
@@ -2840,103 +2986,118 @@
         <v>3208.45672</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2180.28291</v>
+        <v>2181.46021</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7535.67187</v>
+        <v>7542.638089999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2424.9352</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2676.45054</v>
+        <v>2797.81375</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13441.34368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>13545.51724</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4061.911</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>35924.94145000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>20347.25482</v>
+        <v>20347.53482</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>154243.00986</v>
+        <v>154261.17073</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>26762.84872</v>
+        <v>26763.19002</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>27622.5677</v>
+        <v>27622.81067</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>108369.94933</v>
+        <v>108370.60254</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>38709.3607</v>
+        <v>39277.00037</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>186910.06533</v>
+        <v>186839.33424</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>55928.60569999999</v>
+        <v>55928.6057</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>243491.36826</v>
+        <v>244639.44487</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>71465.11101000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>72797.72735</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>68750.02800000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>130021.30629</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>198927.36674</v>
+        <v>198898.95249</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>97546.34801</v>
+        <v>97708.35107</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>242405.54209</v>
+        <v>242199.47907</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>253672.07069</v>
+        <v>253770.72884</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>214045.63158</v>
+        <v>214244.37956</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>283551.79122</v>
+        <v>287129.74025</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>124622.81617</v>
+        <v>131506.55302</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>467159.83875</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>165223.54029</v>
+        <v>162591.67076</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>641978.09227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>642628.57926</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>984037.036</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>30012.36314</v>
@@ -2951,67 +3112,75 @@
         <v>51708.46629</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>50774.89108</v>
+        <v>50785.88595</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>54953.68132</v>
+        <v>54997.87904</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>64108.82977</v>
+        <v>64948.38379</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>69990.94282</v>
+        <v>70890.06280000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>82697.00399000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>102157.26385</v>
+        <v>102402.75129</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>136601.11322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>140922.3841</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>183385.037</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>100008.94315</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>160365.19094</v>
+        <v>160336.77669</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>51851.86553999999</v>
+        <v>52013.86859999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>190697.0758</v>
+        <v>190491.01278</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>202897.17961</v>
+        <v>202984.84289</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>159091.95026</v>
+        <v>159246.50052</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>219442.96145</v>
+        <v>222181.35646</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>54631.87334999999</v>
+        <v>60616.49022000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>384462.83476</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>63066.27644</v>
+        <v>60188.91947</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>505376.97905</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>501706.19516</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>800651.999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2484</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="F59" s="35" t="n">
+        <v>2393</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>2283</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>2282</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>2309</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>2391</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>2277</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>2278</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>2289</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>2380</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2471</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2341</v>
+        <v>2569</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2778</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>